--- a/results-partial/HW_C012_120.xlsx
+++ b/results-partial/HW_C012_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>28.16930748809891</v>
-      </c>
-      <c r="C2" t="n">
-        <v>33.24684722143886</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.72736300978779</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33.13417840075066</v>
-      </c>
-      <c r="F2" t="n">
-        <v>32.72736300978779</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28.59434725159316</v>
-      </c>
-      <c r="H2" t="n">
-        <v>33.04097173550634</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32.74084761629552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.17297950247055</v>
+        <v>28.16930748809891</v>
       </c>
       <c r="C3" t="n">
-        <v>33.27830476157666</v>
+        <v>33.24684722143886</v>
       </c>
       <c r="D3" t="n">
-        <v>32.74803462210698</v>
+        <v>32.72736300978779</v>
       </c>
       <c r="E3" t="n">
-        <v>33.19902284694759</v>
+        <v>33.13417840075066</v>
       </c>
       <c r="F3" t="n">
-        <v>32.74803462210698</v>
+        <v>32.72736300978779</v>
       </c>
       <c r="G3" t="n">
-        <v>28.57696455053883</v>
+        <v>31.16887818084324</v>
       </c>
       <c r="H3" t="n">
-        <v>33.05692585751255</v>
+        <v>33.04097173550634</v>
       </c>
       <c r="I3" t="n">
-        <v>32.74063797618317</v>
+        <v>32.74084761629552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.17675549325753</v>
+        <v>28.17297950247055</v>
       </c>
       <c r="C4" t="n">
-        <v>33.2729190340616</v>
+        <v>33.27830476157666</v>
       </c>
       <c r="D4" t="n">
-        <v>32.71699611051005</v>
+        <v>32.74803462210698</v>
       </c>
       <c r="E4" t="n">
-        <v>33.19540943556403</v>
+        <v>33.19902284694759</v>
       </c>
       <c r="F4" t="n">
-        <v>32.71699611051005</v>
+        <v>32.74803462210698</v>
       </c>
       <c r="G4" t="n">
-        <v>28.58169159034314</v>
+        <v>31.19214580601002</v>
       </c>
       <c r="H4" t="n">
-        <v>33.05172290075931</v>
+        <v>33.05692585751255</v>
       </c>
       <c r="I4" t="n">
-        <v>32.76710633245447</v>
+        <v>32.74063797618317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.20040540071667</v>
+        <v>28.17675549325753</v>
       </c>
       <c r="C5" t="n">
-        <v>33.27879689113384</v>
+        <v>33.2729190340616</v>
       </c>
       <c r="D5" t="n">
-        <v>32.71678436730318</v>
+        <v>32.71699611051005</v>
       </c>
       <c r="E5" t="n">
-        <v>33.17902977415169</v>
+        <v>33.19540943556403</v>
       </c>
       <c r="F5" t="n">
-        <v>32.71639951692989</v>
+        <v>32.71699611051005</v>
       </c>
       <c r="G5" t="n">
-        <v>28.60351957554775</v>
+        <v>31.1757936018076</v>
       </c>
       <c r="H5" t="n">
-        <v>33.03941920188159</v>
+        <v>33.05172290075931</v>
       </c>
       <c r="I5" t="n">
-        <v>32.73719813651305</v>
+        <v>32.76710633245447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.18786957035335</v>
+        <v>28.20040540071667</v>
       </c>
       <c r="C6" t="n">
-        <v>33.28499074071981</v>
+        <v>33.27879689113384</v>
       </c>
       <c r="D6" t="n">
-        <v>32.77473439366767</v>
+        <v>32.71678436730318</v>
       </c>
       <c r="E6" t="n">
-        <v>33.17298691786666</v>
+        <v>33.17902977415169</v>
       </c>
       <c r="F6" t="n">
-        <v>32.77473439366767</v>
+        <v>32.71639951692989</v>
       </c>
       <c r="G6" t="n">
-        <v>28.60377368009638</v>
+        <v>31.17027643858412</v>
       </c>
       <c r="H6" t="n">
-        <v>33.04891119959652</v>
+        <v>33.03941920188159</v>
       </c>
       <c r="I6" t="n">
-        <v>32.73794216253685</v>
+        <v>32.73719813651305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.16266070185871</v>
+        <v>28.18786957035335</v>
       </c>
       <c r="C7" t="n">
-        <v>33.24291397094584</v>
+        <v>33.28499074071981</v>
       </c>
       <c r="D7" t="n">
-        <v>32.7399666238044</v>
+        <v>32.77473439366767</v>
       </c>
       <c r="E7" t="n">
-        <v>33.16424808632406</v>
+        <v>33.17298691786666</v>
       </c>
       <c r="F7" t="n">
-        <v>32.7399666238044</v>
+        <v>32.77473439366767</v>
       </c>
       <c r="G7" t="n">
-        <v>28.55798990500399</v>
+        <v>31.21902568015076</v>
       </c>
       <c r="H7" t="n">
-        <v>33.02975921348241</v>
+        <v>33.04891119959652</v>
       </c>
       <c r="I7" t="n">
-        <v>32.7175123032362</v>
+        <v>32.73794216253685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.17712855766201</v>
+        <v>28.16266070185871</v>
       </c>
       <c r="C8" t="n">
-        <v>33.29280616955333</v>
+        <v>33.24291397094584</v>
       </c>
       <c r="D8" t="n">
-        <v>32.73965080127739</v>
+        <v>32.7399666238044</v>
       </c>
       <c r="E8" t="n">
-        <v>33.19195726071313</v>
+        <v>33.16424808632406</v>
       </c>
       <c r="F8" t="n">
-        <v>32.73973292109623</v>
+        <v>32.7399666238044</v>
       </c>
       <c r="G8" t="n">
-        <v>28.5803042642418</v>
+        <v>31.19240815522726</v>
       </c>
       <c r="H8" t="n">
-        <v>33.08733188744841</v>
+        <v>33.02975921348241</v>
       </c>
       <c r="I8" t="n">
-        <v>32.7733791534007</v>
+        <v>32.7175123032362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.22725258734179</v>
+        <v>28.17712855766201</v>
       </c>
       <c r="C9" t="n">
-        <v>33.29622105240379</v>
+        <v>33.29280616955333</v>
       </c>
       <c r="D9" t="n">
-        <v>32.76244975224193</v>
+        <v>32.73965080127739</v>
       </c>
       <c r="E9" t="n">
-        <v>33.18892192320649</v>
+        <v>33.19195726071313</v>
       </c>
       <c r="F9" t="n">
-        <v>32.76250478677224</v>
+        <v>32.73973292109623</v>
       </c>
       <c r="G9" t="n">
-        <v>28.6241562268011</v>
+        <v>31.17845357178412</v>
       </c>
       <c r="H9" t="n">
-        <v>33.07582437837945</v>
+        <v>33.08733188744841</v>
       </c>
       <c r="I9" t="n">
-        <v>32.74373129673853</v>
+        <v>32.7733791534007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.17314980835272</v>
+        <v>28.22725258734179</v>
       </c>
       <c r="C10" t="n">
-        <v>33.27210288331206</v>
+        <v>33.29622105240379</v>
       </c>
       <c r="D10" t="n">
-        <v>32.74505931655845</v>
+        <v>32.76244975224193</v>
       </c>
       <c r="E10" t="n">
-        <v>33.16396607419959</v>
+        <v>33.18892192320649</v>
       </c>
       <c r="F10" t="n">
-        <v>32.74507854249435</v>
+        <v>32.76250478677224</v>
       </c>
       <c r="G10" t="n">
-        <v>28.58741807696165</v>
+        <v>31.17361324265078</v>
       </c>
       <c r="H10" t="n">
-        <v>33.05004013759471</v>
+        <v>33.07582437837945</v>
       </c>
       <c r="I10" t="n">
-        <v>32.76152659036328</v>
+        <v>32.74373129673853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.17314980835272</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33.27210288331206</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.74505931655845</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.16396607419959</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32.74507854249435</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31.20951648072911</v>
+      </c>
+      <c r="H11" t="n">
+        <v>33.05004013759471</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32.76152659036328</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>28.14708379545179</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>33.22845630718086</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>32.69964874080031</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>33.15096386730718</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>32.69964874080031</v>
       </c>
-      <c r="G11" t="n">
-        <v>28.55359305371879</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>31.16595703899991</v>
+      </c>
+      <c r="H12" t="n">
         <v>33.03082551432844</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>32.71247371626431</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.1794592905564</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33.26943590323267</v>
-      </c>
-      <c r="D12" t="n">
-        <v>32.73706877380582</v>
-      </c>
-      <c r="E12" t="n">
-        <v>33.1740684587031</v>
-      </c>
-      <c r="F12" t="n">
-        <v>32.73704592679699</v>
-      </c>
-      <c r="G12" t="n">
-        <v>28.58637581748466</v>
-      </c>
-      <c r="H12" t="n">
-        <v>33.05117320264898</v>
-      </c>
-      <c r="I12" t="n">
-        <v>32.74323552839861</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.089976612676267</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.557609483249415</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.994609168146702</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.557586636240593</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4069165269282564</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.871713912092574</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.563776237842205</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7614235299455914</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.925311819068197</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9215369089609103</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9253249419206279</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9215369089609103</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8914995945392622</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9178340194968739</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9093691126106808</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.760905764408278</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.925481649217198</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9234882569471947</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9258583366810952</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9234882569471947</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8900275046687547</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9160539765157852</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9109611732757769</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7602625577016562</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9240033083980177</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9236108852737621</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9226126226133721</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9236108852737621</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8936966153129325</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9164106032800957</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9101253744460418</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7597654847579525</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9239049786306947</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9221748517905165</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9222592725419994</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9221690244220142</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.892795448953638</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9152895230064925</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9089524841514077</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7597298769191471</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9263590701319261</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9203785766325757</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9234104426597525</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9203785766325757</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8913963597182891</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9168238198149373</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9145690859667116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7605203127761201</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.924549479515714</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9215130698110928</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9234788350054977</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9215130698110928</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8927140289403344</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9171962724633451</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9121799407129393</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7592504129466099</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9249628090813832</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9201118097819084</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9235133179928453</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9201156723838725</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8907644182754977</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9163744393505632</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9107755464212103</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7602063561946034</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9236797370739774</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9189018713263337</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9244092352013927</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9189023314408619</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8919832928912236</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.917119374740923</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9106256304582349</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7618286601412411</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9260771132235406</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9225658052494164</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9246422551962544</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9225664940095319</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8928084901206628</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9176283899878603</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9115272182827436</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7601126922925701</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9237726299360246</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9246078925015848</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9228523811495815</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9246078925015848</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8907354047244399</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9182211327849955</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9113306346549462</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.85830119490692</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30.20462922642532</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.88403229860958</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.17018407725853</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.88403229860958</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.93429267588893</v>
-      </c>
-      <c r="H2" t="n">
-        <v>29.50381495727706</v>
-      </c>
-      <c r="I2" t="n">
-        <v>28.5179001300055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.83298649664522</v>
+        <v>19.85830119490692</v>
       </c>
       <c r="C3" t="n">
-        <v>30.17319338416839</v>
+        <v>30.20462922642532</v>
       </c>
       <c r="D3" t="n">
-        <v>29.89394846966994</v>
+        <v>29.88403229860958</v>
       </c>
       <c r="E3" t="n">
-        <v>30.14826884559319</v>
+        <v>30.17018407725853</v>
       </c>
       <c r="F3" t="n">
-        <v>29.89394889400371</v>
+        <v>29.88403229860958</v>
       </c>
       <c r="G3" t="n">
-        <v>20.90954343343818</v>
+        <v>26.44240602605168</v>
       </c>
       <c r="H3" t="n">
-        <v>29.46716303048007</v>
+        <v>29.50381495727706</v>
       </c>
       <c r="I3" t="n">
-        <v>28.52324548501059</v>
+        <v>28.5179001300055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.85508146645041</v>
+        <v>19.83298649664522</v>
       </c>
       <c r="C4" t="n">
-        <v>30.19597307401078</v>
+        <v>30.17319338416839</v>
       </c>
       <c r="D4" t="n">
-        <v>29.90058906310567</v>
+        <v>29.89394846966994</v>
       </c>
       <c r="E4" t="n">
-        <v>30.14464936210071</v>
+        <v>30.14826884559319</v>
       </c>
       <c r="F4" t="n">
-        <v>29.90058906310567</v>
+        <v>29.89394889400371</v>
       </c>
       <c r="G4" t="n">
-        <v>20.93292997859302</v>
+        <v>26.40231305187043</v>
       </c>
       <c r="H4" t="n">
-        <v>29.49877160464699</v>
+        <v>29.46716303048007</v>
       </c>
       <c r="I4" t="n">
-        <v>28.56088594459964</v>
+        <v>28.52324548501059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.84163348472186</v>
+        <v>19.85508146645041</v>
       </c>
       <c r="C5" t="n">
-        <v>30.19818487602193</v>
+        <v>30.19597307401078</v>
       </c>
       <c r="D5" t="n">
-        <v>29.87518386724201</v>
+        <v>29.90058906310567</v>
       </c>
       <c r="E5" t="n">
-        <v>30.15792978820026</v>
+        <v>30.14464936210071</v>
       </c>
       <c r="F5" t="n">
-        <v>29.87528505819798</v>
+        <v>29.90058906310567</v>
       </c>
       <c r="G5" t="n">
-        <v>20.92255092716906</v>
+        <v>26.43444705379943</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49483906435426</v>
+        <v>29.49877160464699</v>
       </c>
       <c r="I5" t="n">
-        <v>28.52141357527801</v>
+        <v>28.56088594459964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.85184617895172</v>
+        <v>19.84163348472186</v>
       </c>
       <c r="C6" t="n">
-        <v>30.20350490991083</v>
+        <v>30.19818487602193</v>
       </c>
       <c r="D6" t="n">
-        <v>29.86419155344991</v>
+        <v>29.87518386724201</v>
       </c>
       <c r="E6" t="n">
-        <v>30.15448134482213</v>
+        <v>30.15792978820026</v>
       </c>
       <c r="F6" t="n">
-        <v>29.86419155344991</v>
+        <v>29.87528505819798</v>
       </c>
       <c r="G6" t="n">
-        <v>20.92491485936942</v>
+        <v>26.38874234676558</v>
       </c>
       <c r="H6" t="n">
-        <v>29.45613160740098</v>
+        <v>29.49483906435426</v>
       </c>
       <c r="I6" t="n">
-        <v>28.46775416284039</v>
+        <v>28.52141357527801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.86403301202607</v>
+        <v>19.85184617895172</v>
       </c>
       <c r="C7" t="n">
-        <v>30.22145395366364</v>
+        <v>30.20350490991083</v>
       </c>
       <c r="D7" t="n">
-        <v>29.87507824245436</v>
+        <v>29.86419155344991</v>
       </c>
       <c r="E7" t="n">
-        <v>30.19614366254568</v>
+        <v>30.15448134482213</v>
       </c>
       <c r="F7" t="n">
-        <v>29.87493987786928</v>
+        <v>29.86419155344991</v>
       </c>
       <c r="G7" t="n">
-        <v>20.94295009897539</v>
+        <v>26.40649836886381</v>
       </c>
       <c r="H7" t="n">
-        <v>29.51284830809138</v>
+        <v>29.45613160740098</v>
       </c>
       <c r="I7" t="n">
-        <v>28.55416294957512</v>
+        <v>28.46775416284039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.83322692685066</v>
+        <v>19.86403301202607</v>
       </c>
       <c r="C8" t="n">
-        <v>30.21782327612736</v>
+        <v>30.22145395366364</v>
       </c>
       <c r="D8" t="n">
-        <v>29.92750188615518</v>
+        <v>29.87507824245436</v>
       </c>
       <c r="E8" t="n">
-        <v>30.20525098404347</v>
+        <v>30.19614366254568</v>
       </c>
       <c r="F8" t="n">
-        <v>29.92750188615518</v>
+        <v>29.87493987786928</v>
       </c>
       <c r="G8" t="n">
-        <v>20.90870905988007</v>
+        <v>26.4497583685411</v>
       </c>
       <c r="H8" t="n">
-        <v>29.51395367399795</v>
+        <v>29.51284830809138</v>
       </c>
       <c r="I8" t="n">
-        <v>28.54531734881547</v>
+        <v>28.55416294957512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.85860513323254</v>
+        <v>19.83322692685066</v>
       </c>
       <c r="C9" t="n">
-        <v>30.19604449292865</v>
+        <v>30.21782327612736</v>
       </c>
       <c r="D9" t="n">
-        <v>29.90903871656446</v>
+        <v>29.92750188615518</v>
       </c>
       <c r="E9" t="n">
-        <v>30.1647657994025</v>
+        <v>30.20525098404347</v>
       </c>
       <c r="F9" t="n">
-        <v>29.90903871656446</v>
+        <v>29.92750188615518</v>
       </c>
       <c r="G9" t="n">
-        <v>20.93054775472534</v>
+        <v>26.4223624004905</v>
       </c>
       <c r="H9" t="n">
-        <v>29.48709728076837</v>
+        <v>29.51395367399795</v>
       </c>
       <c r="I9" t="n">
-        <v>28.51293074872881</v>
+        <v>28.54531734881547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.86051346719876</v>
+        <v>19.85860513323254</v>
       </c>
       <c r="C10" t="n">
-        <v>30.17100241135354</v>
+        <v>30.19604449292865</v>
       </c>
       <c r="D10" t="n">
-        <v>29.88460112806417</v>
+        <v>29.90903871656446</v>
       </c>
       <c r="E10" t="n">
-        <v>30.16448985808865</v>
+        <v>30.1647657994025</v>
       </c>
       <c r="F10" t="n">
-        <v>29.88460112806417</v>
+        <v>29.90903871656446</v>
       </c>
       <c r="G10" t="n">
-        <v>20.92642361513549</v>
+        <v>26.4211554583229</v>
       </c>
       <c r="H10" t="n">
-        <v>29.44687135889752</v>
+        <v>29.48709728076837</v>
       </c>
       <c r="I10" t="n">
-        <v>28.44409458764371</v>
+        <v>28.51293074872881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.86051346719876</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.17100241135354</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.88460112806417</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.16448985808865</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.88460112806417</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26.42399393650095</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.44687135889752</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.44409458764371</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.82635023505657</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>30.16747059097988</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>29.86071019998928</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>30.15883196026877</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>29.86071019998928</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.89989600309698</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>26.38683304291485</v>
+      </c>
+      <c r="H12" t="n">
         <v>29.49646257246044</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>28.51755858499255</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.84825775960408</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.19492801955903</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.88748754253046</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.16649956823239</v>
-      </c>
-      <c r="F12" t="n">
-        <v>29.88748386760092</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.92327584062719</v>
-      </c>
-      <c r="H12" t="n">
-        <v>29.4877953458375</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28.51652635174898</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10.34667025995495</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.03922978292638</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.31824180862831</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.03922610799685</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.07501808102311</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9.639537586233423</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8.668268592144901</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4356276257043289</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8747454665763067</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8724565059885291</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8671213221283776</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8724565059885291</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7569411860859979</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8455172611673485</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8202454480881254</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4347617770461861</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8716941275696102</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8719600072734914</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8707620508196292</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8719594390969857</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7551487343661254</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8468231034555694</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8252593645801918</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4358249943579003</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8729412871880911</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8727421262382464</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8694317703245459</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8727421262382464</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7560279593963471</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.84463247799453</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8210994093508229</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4354617974314846</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.876863770980012</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8719995579149589</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8670810126941444</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8719989464274417</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7660935345342801</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8465228438744925</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.823920420398833</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4350396830692716</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8756356160919991</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8709444698667879</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8660068291356513</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8709444698667879</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7580475822919117</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8455173673071383</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8178367294370654</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4360374578926557</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8778488053996909</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.869361695172034</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8695095464056519</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8693576792770279</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7574763434323329</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8438786446631298</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8229637013596194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4344545722486293</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8728488560923283</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.868803229084903</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8686749625924013</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.868803229084903</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7562014132868828</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8442578269013944</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8238583796466015</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4357248305019398</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.873219622528964</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.87215406493956</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8725121486411531</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.87215406493956</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7562326271081629</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8465848869662602</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8196776650634735</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4357752498909845</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8734997568279267</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8732333558013791</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.873976262831331</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8732333558013791</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7582911046305701</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8441756424738373</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8195315270694754</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4344819879502982</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8734138440836023</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8673944724605372</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8672811435613121</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8673944724605372</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.759180782834613</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8449961022041801</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8204181816875845</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.89663588617208</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26.6009766920853</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.25398478429864</v>
-      </c>
-      <c r="E2" t="n">
-        <v>26.29270849045244</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.25395468519543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.74038988221707</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25.00601660287861</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23.88256594906852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.88026691438229</v>
+        <v>14.89663588617208</v>
       </c>
       <c r="C3" t="n">
-        <v>26.58893079280999</v>
+        <v>26.6009766920853</v>
       </c>
       <c r="D3" t="n">
-        <v>26.26095724368518</v>
+        <v>26.25398478429864</v>
       </c>
       <c r="E3" t="n">
-        <v>26.29576570311999</v>
+        <v>26.29270849045244</v>
       </c>
       <c r="F3" t="n">
-        <v>26.26095724368518</v>
+        <v>26.25395468519543</v>
       </c>
       <c r="G3" t="n">
-        <v>17.71977847205375</v>
+        <v>22.31046050483636</v>
       </c>
       <c r="H3" t="n">
-        <v>24.99099851873351</v>
+        <v>25.00601660287861</v>
       </c>
       <c r="I3" t="n">
-        <v>23.88739558583626</v>
+        <v>23.88256594906852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.89171075275804</v>
+        <v>14.88026691438229</v>
       </c>
       <c r="C4" t="n">
-        <v>26.58433746935254</v>
+        <v>26.58893079280999</v>
       </c>
       <c r="D4" t="n">
-        <v>26.18533744031092</v>
+        <v>26.26095724368518</v>
       </c>
       <c r="E4" t="n">
-        <v>26.26630952812534</v>
+        <v>26.29576570311999</v>
       </c>
       <c r="F4" t="n">
-        <v>26.18533744031092</v>
+        <v>26.26095724368518</v>
       </c>
       <c r="G4" t="n">
-        <v>17.71859110120215</v>
+        <v>22.29018264589983</v>
       </c>
       <c r="H4" t="n">
-        <v>24.96189070191538</v>
+        <v>24.99099851873351</v>
       </c>
       <c r="I4" t="n">
-        <v>23.84587220897084</v>
+        <v>23.88739558583626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.87840419464074</v>
+        <v>14.89171075275804</v>
       </c>
       <c r="C5" t="n">
-        <v>26.59299060005784</v>
+        <v>26.58433746935254</v>
       </c>
       <c r="D5" t="n">
-        <v>26.23977388780364</v>
+        <v>26.18533744031092</v>
       </c>
       <c r="E5" t="n">
-        <v>26.25976832379078</v>
+        <v>26.26630952812534</v>
       </c>
       <c r="F5" t="n">
-        <v>26.23976629612457</v>
+        <v>26.18533744031092</v>
       </c>
       <c r="G5" t="n">
-        <v>17.71656177907034</v>
+        <v>22.29235470335686</v>
       </c>
       <c r="H5" t="n">
-        <v>24.96007928716441</v>
+        <v>24.96189070191538</v>
       </c>
       <c r="I5" t="n">
-        <v>23.85197704006888</v>
+        <v>23.84587220897084</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.89966891085526</v>
+        <v>14.87840419464074</v>
       </c>
       <c r="C6" t="n">
-        <v>26.59984051555482</v>
+        <v>26.59299060005784</v>
       </c>
       <c r="D6" t="n">
-        <v>26.22177822571593</v>
+        <v>26.23977388780364</v>
       </c>
       <c r="E6" t="n">
-        <v>26.26773129674628</v>
+        <v>26.25976832379078</v>
       </c>
       <c r="F6" t="n">
-        <v>26.22177822571593</v>
+        <v>26.23976629612457</v>
       </c>
       <c r="G6" t="n">
-        <v>17.73540863560221</v>
+        <v>22.29979860716922</v>
       </c>
       <c r="H6" t="n">
-        <v>24.9497176206858</v>
+        <v>24.96007928716441</v>
       </c>
       <c r="I6" t="n">
-        <v>23.81245910644217</v>
+        <v>23.85197704006888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.89375184249389</v>
+        <v>14.89966891085526</v>
       </c>
       <c r="C7" t="n">
-        <v>26.59980195914494</v>
+        <v>26.59984051555482</v>
       </c>
       <c r="D7" t="n">
-        <v>26.24720720081905</v>
+        <v>26.22177822571593</v>
       </c>
       <c r="E7" t="n">
-        <v>26.2721959521152</v>
+        <v>26.26773129674628</v>
       </c>
       <c r="F7" t="n">
-        <v>26.24720720081905</v>
+        <v>26.22177822571593</v>
       </c>
       <c r="G7" t="n">
-        <v>17.73050907003157</v>
+        <v>22.26588518358156</v>
       </c>
       <c r="H7" t="n">
-        <v>24.98987031777179</v>
+        <v>24.9497176206858</v>
       </c>
       <c r="I7" t="n">
-        <v>23.86988244358376</v>
+        <v>23.81245910644217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.8825148057283</v>
+        <v>14.89375184249389</v>
       </c>
       <c r="C8" t="n">
-        <v>26.52841827593059</v>
+        <v>26.59980195914494</v>
       </c>
       <c r="D8" t="n">
-        <v>26.12942764325213</v>
+        <v>26.24720720081905</v>
       </c>
       <c r="E8" t="n">
-        <v>26.18511470020681</v>
+        <v>26.2721959521152</v>
       </c>
       <c r="F8" t="n">
-        <v>26.12942951585158</v>
+        <v>26.24720720081905</v>
       </c>
       <c r="G8" t="n">
-        <v>17.7200378519952</v>
+        <v>22.27640558577052</v>
       </c>
       <c r="H8" t="n">
-        <v>24.93601328084555</v>
+        <v>24.98987031777179</v>
       </c>
       <c r="I8" t="n">
-        <v>23.81626007712529</v>
+        <v>23.86988244358376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.86926121449483</v>
+        <v>14.8825148057283</v>
       </c>
       <c r="C9" t="n">
-        <v>26.46486654559909</v>
+        <v>26.52841827593059</v>
       </c>
       <c r="D9" t="n">
-        <v>26.11652420344497</v>
+        <v>26.12942764325213</v>
       </c>
       <c r="E9" t="n">
-        <v>26.14141221208055</v>
+        <v>26.18511470020681</v>
       </c>
       <c r="F9" t="n">
-        <v>26.1165364726058</v>
+        <v>26.12942951585158</v>
       </c>
       <c r="G9" t="n">
-        <v>17.69455549513771</v>
+        <v>22.25095972970821</v>
       </c>
       <c r="H9" t="n">
-        <v>24.81095106063454</v>
+        <v>24.93601328084555</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69963054202058</v>
+        <v>23.81626007712529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.88608997419887</v>
+        <v>14.86926121449483</v>
       </c>
       <c r="C10" t="n">
-        <v>26.53921575867776</v>
+        <v>26.46486654559909</v>
       </c>
       <c r="D10" t="n">
-        <v>26.19908441753728</v>
+        <v>26.11652420344497</v>
       </c>
       <c r="E10" t="n">
-        <v>26.24488298646618</v>
+        <v>26.14141221208055</v>
       </c>
       <c r="F10" t="n">
-        <v>26.19908441753728</v>
+        <v>26.1165364726058</v>
       </c>
       <c r="G10" t="n">
-        <v>17.72648744782817</v>
+        <v>22.18689857332219</v>
       </c>
       <c r="H10" t="n">
-        <v>24.92656837590088</v>
+        <v>24.81095106063454</v>
       </c>
       <c r="I10" t="n">
-        <v>23.8263974606561</v>
+        <v>23.69963054202058</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.88608997419887</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.53921575867776</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.19908441753728</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26.24488298646618</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.19908441753728</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.27208749344513</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24.92656837590088</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.8263974606561</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.87354539834943</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>26.55754339610347</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>26.20388349346432</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>26.24330838645585</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>26.20388349346432</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.70446645042993</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>22.27525950449181</v>
+      </c>
+      <c r="H12" t="n">
         <v>24.93933485306041</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>23.83965494512724</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.88518498940737</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.56569220053163</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26.20579585403321</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.24691975795594</v>
-      </c>
-      <c r="F12" t="n">
-        <v>26.20579349913101</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17.72067861855681</v>
-      </c>
-      <c r="H12" t="n">
-        <v>24.94714406195909</v>
-      </c>
-      <c r="I12" t="n">
-        <v>23.83320953588996</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11.68050721112426</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.32061086462583</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.36173476854857</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11.32060850972363</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.835493629149436</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10.06195907255172</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8.948024546482589</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2457612227788152</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7936244435547429</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7877676537060382</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7826295347365505</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7877672678160821</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5772609767778852</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.730239108168127</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6905328037805281</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2440772240313593</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7925774488324149</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7866020252412944</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7811901350010529</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7866020252412944</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5749050749592929</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7297427806366493</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6965778651425467</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2453475928995676</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8032805169502885</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8008553017297438</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7846862437289205</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8008553017297438</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5786453189566074</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7304164677667967</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6909144417592884</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2445062578386531</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7929725933737166</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.777903198137171</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7780973283168078</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7779023155426403</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5759289674558922</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7301364267179667</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6912436272179893</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2451385912127535</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7952326647132848</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7845434177360906</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7834583143047793</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7845434177360906</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5763117484828427</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7287819478011996</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6946557048428125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2443624264500341</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7891716562062533</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7774995412918096</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7807930624655843</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7774995412918096</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.574864028241197</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.729133495207979</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6920508653407532</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2439839696071152</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7852951153622514</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7863556371480022</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7827418197140386</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7863559834050575</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5740466651778797</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7308326713654033</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6884643582110039</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.243406977402074</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7905499997427876</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7813622378704143</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7772726931596309</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7813655229247294</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5695615285962777</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.725697366049732</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6858664971211919</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2440899457375011</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7960536742250693</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7785883033905235</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7801881861432294</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7785883033905235</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5773092858159216</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7251388065624982</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6886891004660306</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2435371023000582</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7981359841794724</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.798552271901167</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7788415678577767</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.798552271901167</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5774789476096132</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7261108757402965</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6895711531930533</v>
       </c>
     </row>
   </sheetData>
